--- a/GMLA loading analysis/PMsystem_PRweb/(Output) prweb_pmsystem_weighted.xlsx
+++ b/GMLA loading analysis/PMsystem_PRweb/(Output) prweb_pmsystem_weighted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>2022-05</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Lily 2</t>
   </si>
   <si>
+    <t>MARQ Carbon</t>
+  </si>
+  <si>
     <t>Venu 3S</t>
   </si>
   <si>
@@ -172,6 +175,9 @@
     <t>GPSMAP 9000_Black Box</t>
   </si>
   <si>
+    <t>GSD28</t>
+  </si>
+  <si>
     <t>LiveScope XR</t>
   </si>
   <si>
@@ -262,9 +268,6 @@
     <t>Instinct Hybrid Analog/Digital(Ripley)</t>
   </si>
   <si>
-    <t>MARQ Carbon</t>
-  </si>
-  <si>
     <t>Venu Sq 2(IMP)</t>
   </si>
   <si>
@@ -326,6 +329,9 @@
   </si>
   <si>
     <t>Enduro 2023</t>
+  </si>
+  <si>
+    <t>Marq (Gen 2)</t>
   </si>
   <si>
     <t>Venu 3</t>
@@ -698,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X79"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -875,11 +881,8 @@
       <c r="B8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
+      <c r="F8">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -887,6 +890,9 @@
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
       <c r="O9">
         <v>1</v>
       </c>
@@ -896,13 +902,7 @@
       <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="J10">
+      <c r="O10">
         <v>1</v>
       </c>
     </row>
@@ -911,11 +911,8 @@
       <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -925,24 +922,27 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>3</v>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
@@ -976,10 +976,13 @@
       <c r="B15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="I15">
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="H15">
         <v>1</v>
       </c>
     </row>
@@ -988,26 +991,29 @@
       <c r="B16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
@@ -1015,35 +1021,26 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>3</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24">
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>49</v>
@@ -1061,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:17">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
@@ -1079,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>51</v>
@@ -1097,52 +1094,52 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
       <c r="J24">
         <v>2</v>
       </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>55</v>
@@ -1150,145 +1147,163 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
       <c r="J26">
-        <v>3</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E28">
-        <v>2</v>
+      <c r="D28">
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Q32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>3</v>
-      </c>
-      <c r="X32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22">
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22">
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>3</v>
-      </c>
-      <c r="P35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22">
+      <c r="K35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22">
+      <c r="C36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>67</v>
@@ -1296,149 +1311,131 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="H38">
-        <v>2</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22">
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M39">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>3</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1"/>
       <c r="B41" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22">
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>2</v>
-      </c>
-      <c r="N42">
-        <v>3</v>
-      </c>
-      <c r="P42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>3</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="I46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>3</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22">
-      <c r="A48" s="1"/>
+      <c r="E47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B48" s="1" t="s">
         <v>77</v>
       </c>
@@ -1460,16 +1457,16 @@
       <c r="B49" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="H49">
         <v>2</v>
       </c>
       <c r="J49">
         <v>3</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>1</v>
       </c>
     </row>
@@ -1481,13 +1478,13 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>3</v>
-      </c>
-      <c r="K50">
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="M50">
         <v>1</v>
       </c>
     </row>
@@ -1496,16 +1493,16 @@
       <c r="B51" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>2</v>
-      </c>
-      <c r="K51">
-        <v>3</v>
-      </c>
-      <c r="M51">
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+      <c r="L51">
         <v>1</v>
       </c>
     </row>
@@ -1514,10 +1511,16 @@
       <c r="B52" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="F52">
-        <v>3</v>
-      </c>
-      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="K52">
         <v>1</v>
       </c>
     </row>
@@ -1526,8 +1529,17 @@
       <c r="B53" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F53">
-        <v>2</v>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -1535,7 +1547,10 @@
       <c r="B54" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E54">
+      <c r="F54">
+        <v>3</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
     </row>
@@ -1544,32 +1559,26 @@
       <c r="B55" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="H55">
+      <c r="E55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
-      <c r="N56">
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="H56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:14">
-      <c r="A57" s="1"/>
+      <c r="A57" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B57" s="1" t="s">
         <v>86</v>
       </c>
@@ -1589,6 +1598,12 @@
         <v>87</v>
       </c>
       <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="N58">
         <v>1</v>
       </c>
     </row>
@@ -1615,13 +1630,7 @@
       <c r="B61" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-      <c r="M61">
+      <c r="D61">
         <v>1</v>
       </c>
     </row>
@@ -1630,7 +1639,13 @@
       <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I62">
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="M62">
         <v>1</v>
       </c>
     </row>
@@ -1639,7 +1654,7 @@
       <c r="B63" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D63">
+      <c r="I63">
         <v>1</v>
       </c>
     </row>
@@ -1648,7 +1663,7 @@
       <c r="B64" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>1</v>
       </c>
     </row>
@@ -1685,9 +1700,6 @@
         <v>97</v>
       </c>
       <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
         <v>1</v>
       </c>
     </row>
@@ -1697,53 +1709,47 @@
         <v>98</v>
       </c>
       <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="D69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:21">
-      <c r="A70" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A70" s="1"/>
       <c r="B70" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
       </c>
       <c r="K70">
-        <v>3</v>
-      </c>
-      <c r="M70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:21">
-      <c r="A71" s="1"/>
+      <c r="A71" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B71" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>2</v>
-      </c>
-      <c r="Q71">
-        <v>3</v>
-      </c>
-      <c r="S71">
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="M71">
         <v>1</v>
       </c>
     </row>
@@ -1770,16 +1776,16 @@
       <c r="B73" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>2</v>
-      </c>
-      <c r="I73">
-        <v>3</v>
-      </c>
-      <c r="K73">
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="S73">
         <v>1</v>
       </c>
     </row>
@@ -1788,13 +1794,16 @@
       <c r="B74" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
-      <c r="Q74">
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="K74">
         <v>1</v>
       </c>
     </row>
@@ -1804,9 +1813,12 @@
         <v>104</v>
       </c>
       <c r="J75">
-        <v>2</v>
-      </c>
-      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
+        <v>3</v>
+      </c>
+      <c r="Q75">
         <v>1</v>
       </c>
     </row>
@@ -1815,33 +1827,25 @@
       <c r="B76" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E76">
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="F76">
         <v>3</v>
       </c>
       <c r="H76">
-        <v>3</v>
-      </c>
-      <c r="J76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:21">
-      <c r="A77" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A77" s="1"/>
       <c r="B77" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>2</v>
-      </c>
-      <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="N77">
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="O77">
         <v>1</v>
       </c>
     </row>
@@ -1850,43 +1854,78 @@
       <c r="B78" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
-      <c r="Q78">
-        <v>2</v>
-      </c>
-      <c r="T78">
-        <v>3</v>
-      </c>
-      <c r="U78">
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="H78">
+        <v>3</v>
+      </c>
+      <c r="J78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:21">
-      <c r="A79" s="1"/>
+      <c r="A79" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="B79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F79">
-        <v>2</v>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
-      </c>
-      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>3</v>
+      </c>
+      <c r="U80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="K81">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A27"/>
-    <mergeCell ref="A28:A45"/>
-    <mergeCell ref="A46:A55"/>
-    <mergeCell ref="A56:A69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A29"/>
+    <mergeCell ref="A30:A47"/>
+    <mergeCell ref="A48:A56"/>
+    <mergeCell ref="A57:A70"/>
+    <mergeCell ref="A71:A78"/>
+    <mergeCell ref="A79:A81"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
